--- a/trunk/excel/Analisis de Resumen de preventa.xlsx
+++ b/trunk/excel/Analisis de Resumen de preventa.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14520" windowHeight="6990" tabRatio="687"/>
@@ -12,8 +12,9 @@
   </sheets>
   <calcPr calcId="125725" calcMode="manual"/>
   <pivotCaches>
-    <pivotCache cacheId="135" r:id="rId3"/>
+    <pivotCache cacheId="1" r:id="rId3"/>
   </pivotCaches>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -101,10 +102,17 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,###"/>
   </numFmts>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -130,7 +138,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
@@ -141,6 +149,7 @@
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -284,7 +293,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="135" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabla dinámica1" cacheId="1" dataOnRows="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="A2:F22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField axis="axisCol" allDrilled="1" showAll="0" dataSourceSort="1">
@@ -768,7 +777,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -790,8 +799,8 @@
     <col min="18" max="18" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="21">
+      <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
     </row>
